--- a/backend/src/static/templates/reports/Dairy_Client_Details_Template.xlsx
+++ b/backend/src/static/templates/reports/Dairy_Client_Details_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\nr-mals\app\server\static\templates\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\nr-mals\backend\src\static\templates\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FCE2B3-C513-40AD-9C31-24B93A892015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37768DC4-D820-451A-A32B-9E6E893A1D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{11309506-049F-4A42-8D72-2555D662D497}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="38700" windowHeight="15345" xr2:uid="{11309506-049F-4A42-8D72-2555D662D497}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Threshold Report" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
   <si>
     <t>IH</t>
   </si>
@@ -423,6 +423,24 @@
   </si>
   <si>
     <t>{ d.Client[i+1]:ifNEM():show(Issue Date:) }</t>
+  </si>
+  <si>
+    <t>License Re-Issued:</t>
+  </si>
+  <si>
+    <t>{ d.Client[i+1]:ifNEM():show(License Re-Issued:) }</t>
+  </si>
+  <si>
+    <t>{d.Client[i].ReissueDates[i].date}</t>
+  </si>
+  <si>
+    <t>{d.Client[i].ReissueDates[i+1].date}</t>
+  </si>
+  <si>
+    <t>{d.Client[i+1].ReissueDates[i].date}</t>
+  </si>
+  <si>
+    <t>{d.Client[i+1].ReissueDates[i+1].date}</t>
   </si>
 </sst>
 </file>
@@ -480,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -545,6 +563,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -569,9 +590,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -609,7 +630,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -715,7 +736,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -857,7 +878,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -868,7 +889,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,11 +908,11 @@
         <v>4</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="J1" t="s">
         <v>24</v>
       </c>
@@ -906,8 +927,8 @@
       <c r="C2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -934,8 +955,12 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>132</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
@@ -945,7 +970,9 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="26" t="s">
+        <v>133</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
@@ -1258,8 +1285,12 @@
       <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="E31" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>134</v>
+      </c>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1268,7 +1299,9 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="26" t="s">
+        <v>135</v>
+      </c>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">

--- a/backend/src/static/templates/reports/Dairy_Client_Details_Template.xlsx
+++ b/backend/src/static/templates/reports/Dairy_Client_Details_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\nr-mals\backend\src\static\templates\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37768DC4-D820-451A-A32B-9E6E893A1D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6895179-3A23-4D53-AF93-1A2E6148E29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="38700" windowHeight="15345" xr2:uid="{11309506-049F-4A42-8D72-2555D662D497}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="29370" windowHeight="15345" xr2:uid="{11309506-049F-4A42-8D72-2555D662D497}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Threshold Report" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="134">
   <si>
     <t>IH</t>
   </si>
@@ -431,16 +431,10 @@
     <t>{ d.Client[i+1]:ifNEM():show(License Re-Issued:) }</t>
   </si>
   <si>
-    <t>{d.Client[i].ReissueDates[i].date}</t>
-  </si>
-  <si>
-    <t>{d.Client[i].ReissueDates[i+1].date}</t>
-  </si>
-  <si>
-    <t>{d.Client[i+1].ReissueDates[i].date}</t>
-  </si>
-  <si>
-    <t>{d.Client[i+1].ReissueDates[i+1].date}</t>
+    <t>{d.Client[i+1].ReissueDates</t>
+  </si>
+  <si>
+    <t>{d.Client[i].ReissueDates}</t>
   </si>
 </sst>
 </file>
@@ -889,7 +883,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,20 +953,18 @@
         <v>130</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="26" t="s">
-        <v>133</v>
-      </c>
+      <c r="F6" s="26"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
@@ -1289,7 +1281,7 @@
         <v>131</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G31" s="5"/>
     </row>
@@ -1299,9 +1291,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="26" t="s">
-        <v>135</v>
-      </c>
+      <c r="F32" s="26"/>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -1582,21 +1572,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8CBF3948AF16E4A9427EB9CB0C3AFDB" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0f00dee740a70860da74dc5110d51704">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc8b8595-9fa1-49bc-a016-2621e7bde64e" xmlns:ns3="e1c8ebbc-f196-4c28-98e9-1900bd408e79" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2351f42212ae562663f11aa838f8e3a4" ns2:_="" ns3:_="">
     <xsd:import namespace="bc8b8595-9fa1-49bc-a016-2621e7bde64e"/>
@@ -1819,7 +1794,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2AF8CD6-3E38-48DB-89EE-EAD5D47F2F99}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bc8b8595-9fa1-49bc-a016-2621e7bde64e"/>
+    <ds:schemaRef ds:uri="e1c8ebbc-f196-4c28-98e9-1900bd408e79"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{137977AE-5CF3-42F0-AD7C-49AF06AF507F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -1836,29 +1845,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12EAFE4B-1F2D-4650-ACDE-3590E8305080}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2AF8CD6-3E38-48DB-89EE-EAD5D47F2F99}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bc8b8595-9fa1-49bc-a016-2621e7bde64e"/>
-    <ds:schemaRef ds:uri="e1c8ebbc-f196-4c28-98e9-1900bd408e79"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>